--- a/data/M2-IEAP-EMS.xlsx
+++ b/data/M2-IEAP-EMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84665F6E-D957-F346-9054-5CFEF2A35079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63F2CEF-DE9D-0C40-AD03-9D21794928C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19720" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19700" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
   <sheets>
     <sheet name="M2-IEAP-EMS" sheetId="1" r:id="rId1"/>
@@ -168,12 +168,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,8 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,7 +534,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,7 +575,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2">
@@ -597,7 +604,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3">
@@ -626,7 +633,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4">
@@ -713,7 +720,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7">
@@ -742,7 +749,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B8">
@@ -771,7 +778,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9">
@@ -829,7 +836,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B11">
@@ -858,7 +865,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12">
@@ -887,7 +894,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B13">

--- a/data/M2-IEAP-EMS.xlsx
+++ b/data/M2-IEAP-EMS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/SSDS/enseignement/UFR STAPS/Direction/Outils/celcatreport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63F2CEF-DE9D-0C40-AD03-9D21794928C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F030A5-BCBC-5745-9AA4-59FFF9C20C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="19700" xr2:uid="{154AE90F-D41B-8B49-BA91-D855BEB6F170}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Code Apogée</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Stage professionnel</t>
+  </si>
+  <si>
+    <t>Groupes CM</t>
   </si>
 </sst>
 </file>
@@ -168,18 +171,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,7 +193,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,459 +528,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D425352-B3D2-6642-82B3-EC9BD51219AA}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.5" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>311</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
         <v>20</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
         <v>20</v>
       </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>312</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>20</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>313</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>321</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>6</v>
       </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>322</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>12</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>331</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>332</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
         <v>6</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
         <v>8</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>333</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>12</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
         <v>12</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>341</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>6</v>
       </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
         <v>30</v>
       </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
         <v>8</v>
       </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>351</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
         <v>8</v>
       </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>352</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
         <v>6</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>353</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
         <v>4</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
         <v>6</v>
       </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>411</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
         <v>20</v>
       </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>421</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>20</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>20</v>
       </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>4</v>
+      <c r="J15" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I46">
-    <sortCondition ref="B2:B46"/>
-    <sortCondition ref="A2:A46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J15">
+    <sortCondition ref="B2:B15"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
